--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1905.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77810CE8-70D6-4FE9-9DAE-080B80552EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520E14CB-9732-45E2-83DB-A5B8DFA462DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="75" windowWidth="27645" windowHeight="22020" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
   <si>
     <t>губ</t>
   </si>
@@ -424,6 +424,15 @@
   <si>
     <t>чс-уез-о YY</t>
   </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +465,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -485,6 +500,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5B6F9-649D-48D0-A365-7FB0E4D5C1A0}">
-  <dimension ref="A1:AC466"/>
+  <dimension ref="A1:AG466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -830,9 +846,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,8 +934,17 @@
       <c r="AC1" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1035,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="7">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1101,8 +1139,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE3" s="7">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1193,8 +1243,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE4" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1204,8 +1266,8 @@
       <c r="C5" s="2">
         <v>58265</v>
       </c>
-      <c r="D5" s="2">
-        <v>40956</v>
+      <c r="D5" s="8">
+        <v>40958</v>
       </c>
       <c r="F5" s="3">
         <v>122820</v>
@@ -1285,8 +1347,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE5" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1377,8 +1451,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE6" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1469,8 +1555,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE7" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1561,8 +1659,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE8" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1653,13 +1763,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE9" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>2569241</v>
+      <c r="B10" s="8">
+        <v>2569249</v>
       </c>
       <c r="C10" s="2">
         <v>103321</v>
@@ -1745,8 +1867,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE10" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1837,8 +1971,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE11" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1929,8 +2075,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE12" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2021,16 +2179,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE13" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>25835550</v>
       </c>
-      <c r="C14" s="2">
-        <v>1626708</v>
+      <c r="C14" s="8">
+        <v>1026703</v>
       </c>
       <c r="D14" s="2">
         <v>694384</v>
@@ -2113,8 +2283,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE14" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2205,8 +2387,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE15" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2297,8 +2491,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE16" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2389,16 +2595,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE17" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>901702</v>
       </c>
-      <c r="C18" s="2">
-        <v>30299</v>
+      <c r="C18" s="8">
+        <v>30293</v>
       </c>
       <c r="D18" s="2">
         <v>20915</v>
@@ -2481,8 +2699,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE18" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2573,8 +2803,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2665,8 +2907,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE20" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2757,8 +3011,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE21" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2849,8 +3115,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE22" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2941,8 +3219,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE23" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3033,8 +3323,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE24" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3125,8 +3427,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE25" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3217,8 +3531,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE26" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3309,19 +3635,31 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE27" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
-        <v>1400869</v>
+      <c r="B28" s="8">
+        <v>1400889</v>
       </c>
       <c r="C28" s="2">
         <v>33701</v>
       </c>
-      <c r="D28" s="2">
-        <v>29651</v>
+      <c r="D28" s="8">
+        <v>29654</v>
       </c>
       <c r="F28" s="3">
         <v>185631</v>
@@ -3401,8 +3739,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3493,8 +3843,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE29" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3585,8 +3947,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE30" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3677,8 +4051,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE31" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3769,8 +4155,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE32" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -3861,8 +4259,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE33" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3953,8 +4363,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE34" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -4045,8 +4467,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE35" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4137,8 +4571,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE36" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4229,8 +4675,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE37" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -4321,8 +4779,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE38" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -4413,8 +4883,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE39" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4505,8 +4987,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE40" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4597,8 +5091,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4689,16 +5195,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE42" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>1835555</v>
       </c>
-      <c r="C43" s="2">
-        <v>89783</v>
+      <c r="C43" s="8">
+        <v>89788</v>
       </c>
       <c r="D43" s="2">
         <v>65747</v>
@@ -4781,8 +5299,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE43" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -4873,8 +5403,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE44" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -4965,8 +5507,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE45" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -5057,8 +5611,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE46" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -5149,8 +5715,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE47" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -5241,8 +5819,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE48" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5333,8 +5923,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE49" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -5425,8 +6027,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE50" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -5517,8 +6131,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE51" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5609,8 +6235,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE52" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -5701,8 +6339,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE53" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -5793,8 +6443,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE54" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -5885,8 +6547,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE55" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5977,8 +6651,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE56" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -6069,8 +6755,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE57" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6161,8 +6859,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE58" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -6253,8 +6963,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE59" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -6345,8 +7067,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE60" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -6437,8 +7171,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE61" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -6529,8 +7275,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE62" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -6621,8 +7379,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE63" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -6713,8 +7483,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE64" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -6805,8 +7587,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE65" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6897,8 +7691,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE66" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -6908,8 +7714,8 @@
       <c r="C67" s="2">
         <v>12917</v>
       </c>
-      <c r="D67" s="2">
-        <v>1185</v>
+      <c r="D67" s="8">
+        <v>11856</v>
       </c>
       <c r="F67" s="3">
         <v>264645</v>
@@ -6921,7 +7727,7 @@
         <v>475779</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I106" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I106" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="3">
@@ -6934,7 +7740,7 @@
         <v>12917</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:M106" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M106" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="3">
@@ -6947,7 +7753,7 @@
         <v>11856</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" ref="Q67:Q106" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q106" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="3">
@@ -6960,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" ref="U67:U106" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U106" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="3">
@@ -6973,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" ref="Y67:Y106" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y106" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="3">
@@ -6986,11 +7792,23 @@
         <v>0</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" ref="AC67:AC106" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="AC67:AC106" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="7">
+        <f t="shared" ref="AE67:AE106" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="7">
+        <f t="shared" ref="AF67:AF106" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="7">
+        <f t="shared" ref="AG67:AG106" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7000,8 +7818,8 @@
       <c r="C68" s="2">
         <v>112441</v>
       </c>
-      <c r="D68" s="2">
-        <v>73801</v>
+      <c r="D68" s="8">
+        <v>73501</v>
       </c>
       <c r="F68" s="3">
         <v>118112</v>
@@ -7013,7 +7831,7 @@
         <v>234654</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="3">
@@ -7026,7 +7844,7 @@
         <v>7767</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="3">
@@ -7039,7 +7857,7 @@
         <v>5355</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="3">
@@ -7052,7 +7870,7 @@
         <v>2467077</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="3">
@@ -7065,7 +7883,7 @@
         <v>104674</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="3">
@@ -7078,11 +7896,23 @@
         <v>68146</v>
       </c>
       <c r="AC68" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -7105,7 +7935,7 @@
         <v>156464</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="3">
@@ -7118,7 +7948,7 @@
         <v>6841</v>
       </c>
       <c r="M69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="3">
@@ -7131,7 +7961,7 @@
         <v>5579</v>
       </c>
       <c r="Q69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="3">
@@ -7144,7 +7974,7 @@
         <v>1079462</v>
       </c>
       <c r="U69" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="3">
@@ -7157,7 +7987,7 @@
         <v>38425</v>
       </c>
       <c r="Y69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="3">
@@ -7170,11 +8000,23 @@
         <v>30499</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -7197,7 +8039,7 @@
         <v>9609344</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-177784</v>
       </c>
       <c r="J70" s="3">
@@ -7210,7 +8052,7 @@
         <v>347578</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-19268</v>
       </c>
       <c r="N70" s="3">
@@ -7223,7 +8065,7 @@
         <v>279548</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-16930</v>
       </c>
       <c r="R70" s="3">
@@ -7236,7 +8078,7 @@
         <v>68589670</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1601354</v>
       </c>
       <c r="V70" s="3">
@@ -7249,7 +8091,7 @@
         <v>3214382</v>
       </c>
       <c r="Y70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-100836</v>
       </c>
       <c r="Z70" s="3">
@@ -7262,19 +8104,31 @@
         <v>2271751</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-86106</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE70" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>2878035</v>
       </c>
-      <c r="C71" s="2">
-        <v>156414</v>
+      <c r="C71" s="8">
+        <v>156415</v>
       </c>
       <c r="D71" s="2">
         <v>102139</v>
@@ -7289,7 +8143,7 @@
         <v>259522</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -7302,7 +8156,7 @@
         <v>13951</v>
       </c>
       <c r="M71" s="5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N71" s="3" t="s">
@@ -7315,7 +8169,7 @@
         <v>9637</v>
       </c>
       <c r="Q71" s="5" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R71" s="3">
@@ -7328,7 +8182,7 @@
         <v>2618513</v>
       </c>
       <c r="U71" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="3" t="s">
@@ -7341,259 +8195,295 @@
         <v>142464</v>
       </c>
       <c r="Y71" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>92502</v>
+      </c>
+      <c r="AC71" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE71" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2">
+        <v>120795442</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5228266</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3668134</v>
+      </c>
+      <c r="F72" s="3">
+        <v>7967780</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7504265</v>
+      </c>
+      <c r="H72" s="3">
+        <v>15649829</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="9"/>
+        <v>-177784</v>
+      </c>
+      <c r="J72" s="3">
+        <v>271617</v>
+      </c>
+      <c r="K72" s="3">
+        <v>252633</v>
+      </c>
+      <c r="L72" s="3">
+        <v>557468</v>
+      </c>
+      <c r="M72" s="5">
+        <f t="shared" si="10"/>
+        <v>-33218</v>
+      </c>
+      <c r="N72" s="3">
+        <v>215704</v>
+      </c>
+      <c r="O72" s="3">
+        <v>182696</v>
+      </c>
+      <c r="P72" s="3">
+        <v>424967</v>
+      </c>
+      <c r="Q72" s="5">
+        <f t="shared" si="11"/>
+        <v>-26567</v>
+      </c>
+      <c r="R72" s="3">
+        <v>51305207</v>
+      </c>
+      <c r="S72" s="3">
+        <v>52239052</v>
+      </c>
+      <c r="T72" s="3">
+        <v>105145613</v>
+      </c>
+      <c r="U72" s="5">
+        <f t="shared" si="12"/>
+        <v>-1601354</v>
+      </c>
+      <c r="V72" s="3">
+        <v>2269521</v>
+      </c>
+      <c r="W72" s="3">
+        <v>2157977</v>
+      </c>
+      <c r="X72" s="3">
+        <v>4670798</v>
+      </c>
+      <c r="Y72" s="5">
+        <f t="shared" si="13"/>
+        <v>-243300</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>1582135</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>1482424</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>3243167</v>
+      </c>
+      <c r="AC72" s="5">
+        <f t="shared" si="14"/>
+        <v>-178608</v>
+      </c>
+      <c r="AE72" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1123136</v>
+      </c>
+      <c r="C73" s="2">
+        <v>30426</v>
+      </c>
+      <c r="D73" s="2">
+        <v>21661</v>
+      </c>
+      <c r="F73" s="3">
+        <v>166165</v>
+      </c>
+      <c r="G73" s="3">
+        <v>106196</v>
+      </c>
+      <c r="H73">
+        <v>272361</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>2916</v>
+      </c>
+      <c r="K73" s="3">
+        <v>2609</v>
+      </c>
+      <c r="L73" s="3">
+        <v>5525</v>
+      </c>
+      <c r="M73" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>2847</v>
+      </c>
+      <c r="O73" s="3">
+        <v>2264</v>
+      </c>
+      <c r="P73" s="3">
+        <v>5111</v>
+      </c>
+      <c r="Q73" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>475857</v>
+      </c>
+      <c r="S73" s="3">
+        <v>374918</v>
+      </c>
+      <c r="T73" s="3">
+        <v>850775</v>
+      </c>
+      <c r="U73" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>12623</v>
+      </c>
+      <c r="W73" s="3">
+        <v>12278</v>
+      </c>
+      <c r="X73" s="3">
+        <v>24901</v>
+      </c>
+      <c r="Y73" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>9989</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>6561</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>16550</v>
+      </c>
+      <c r="AC73" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
+        <v>161202</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2860</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1841</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="3">
+        <v>41078</v>
+      </c>
+      <c r="I74" s="5" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1195</v>
+      </c>
+      <c r="M74" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z71" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA71" s="3" t="s">
+      <c r="O74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB71" s="2">
-        <v>92502</v>
-      </c>
-      <c r="AC71" s="5" t="e">
+      <c r="P74" s="3">
+        <v>864</v>
+      </c>
+      <c r="Q74" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="2">
-        <v>120795442</v>
-      </c>
-      <c r="C72" s="2">
-        <v>5228266</v>
-      </c>
-      <c r="D72" s="2">
-        <v>3668134</v>
-      </c>
-      <c r="F72" s="3">
-        <v>7967780</v>
-      </c>
-      <c r="G72" s="3">
-        <v>7504265</v>
-      </c>
-      <c r="H72" s="3">
-        <v>15649829</v>
-      </c>
-      <c r="I72" s="5">
-        <f t="shared" si="6"/>
-        <v>-177784</v>
-      </c>
-      <c r="J72" s="3">
-        <v>271617</v>
-      </c>
-      <c r="K72" s="3">
-        <v>252633</v>
-      </c>
-      <c r="L72" s="3">
-        <v>557468</v>
-      </c>
-      <c r="M72" s="5">
-        <f t="shared" si="7"/>
-        <v>-33218</v>
-      </c>
-      <c r="N72" s="3">
-        <v>215704</v>
-      </c>
-      <c r="O72" s="3">
-        <v>182696</v>
-      </c>
-      <c r="P72" s="3">
-        <v>424967</v>
-      </c>
-      <c r="Q72" s="5">
-        <f t="shared" si="8"/>
-        <v>-26567</v>
-      </c>
-      <c r="R72" s="3">
-        <v>51305207</v>
-      </c>
-      <c r="S72" s="3">
-        <v>52239052</v>
-      </c>
-      <c r="T72" s="3">
-        <v>105145613</v>
-      </c>
-      <c r="U72" s="5">
-        <f t="shared" si="9"/>
-        <v>-1601354</v>
-      </c>
-      <c r="V72" s="3">
-        <v>2269521</v>
-      </c>
-      <c r="W72" s="3">
-        <v>2157977</v>
-      </c>
-      <c r="X72" s="3">
-        <v>4670798</v>
-      </c>
-      <c r="Y72" s="5">
-        <f t="shared" si="10"/>
-        <v>-243300</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>1582135</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>1482424</v>
-      </c>
-      <c r="AB72" s="2">
-        <v>3243167</v>
-      </c>
-      <c r="AC72" s="5">
-        <f t="shared" si="11"/>
-        <v>-178608</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="2">
-        <v>1123136</v>
-      </c>
-      <c r="C73" s="2">
-        <v>30426</v>
-      </c>
-      <c r="D73" s="2">
-        <v>21661</v>
-      </c>
-      <c r="F73" s="3">
-        <v>166165</v>
-      </c>
-      <c r="G73" s="3">
-        <v>106196</v>
-      </c>
-      <c r="H73">
-        <v>272361</v>
-      </c>
-      <c r="I73" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="3">
-        <v>2916</v>
-      </c>
-      <c r="K73" s="3">
-        <v>2609</v>
-      </c>
-      <c r="L73" s="3">
-        <v>5525</v>
-      </c>
-      <c r="M73" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="3">
-        <v>2847</v>
-      </c>
-      <c r="O73" s="3">
-        <v>2264</v>
-      </c>
-      <c r="P73" s="3">
-        <v>5111</v>
-      </c>
-      <c r="Q73" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="3">
-        <v>475857</v>
-      </c>
-      <c r="S73" s="3">
-        <v>374918</v>
-      </c>
-      <c r="T73" s="3">
-        <v>850775</v>
-      </c>
-      <c r="U73" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="3">
-        <v>12623</v>
-      </c>
-      <c r="W73" s="3">
-        <v>12278</v>
-      </c>
-      <c r="X73" s="3">
-        <v>24901</v>
-      </c>
-      <c r="Y73" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="3">
-        <v>9989</v>
-      </c>
-      <c r="AA73" s="3">
-        <v>6561</v>
-      </c>
-      <c r="AB73" s="2">
-        <v>16550</v>
-      </c>
-      <c r="AC73" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="2">
-        <v>161202</v>
-      </c>
-      <c r="C74" s="2">
-        <v>2860</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1841</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H74" s="3">
-        <v>41078</v>
-      </c>
-      <c r="I74" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L74" s="3">
-        <v>1195</v>
-      </c>
-      <c r="M74" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P74" s="3">
-        <v>864</v>
-      </c>
-      <c r="Q74" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R74" s="3" t="s">
         <v>109</v>
       </c>
@@ -7604,180 +8494,204 @@
         <v>120124</v>
       </c>
       <c r="U74" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X74" s="3">
+        <v>1665</v>
+      </c>
+      <c r="Y74" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>977</v>
+      </c>
+      <c r="AC74" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE74" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2">
+        <v>652487</v>
+      </c>
+      <c r="C75" s="2">
+        <v>17508</v>
+      </c>
+      <c r="D75" s="2">
+        <v>16158</v>
+      </c>
+      <c r="F75" s="3">
+        <v>5878</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3703</v>
+      </c>
+      <c r="H75" s="3">
+        <v>9581</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>173</v>
+      </c>
+      <c r="K75" s="3">
+        <v>179</v>
+      </c>
+      <c r="L75" s="3">
+        <v>352</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>142</v>
+      </c>
+      <c r="O75" s="3">
+        <v>100</v>
+      </c>
+      <c r="P75" s="3">
+        <v>242</v>
+      </c>
+      <c r="Q75" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>331020</v>
+      </c>
+      <c r="S75" s="3">
+        <v>311886</v>
+      </c>
+      <c r="T75" s="3">
+        <v>642906</v>
+      </c>
+      <c r="U75" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>9078</v>
+      </c>
+      <c r="W75" s="3">
+        <v>8078</v>
+      </c>
+      <c r="X75" s="3">
+        <v>17156</v>
+      </c>
+      <c r="Y75" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>8776</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>7140</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>15916</v>
+      </c>
+      <c r="AC75" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="2">
+        <v>929896</v>
+      </c>
+      <c r="C76" s="2">
+        <v>23239</v>
+      </c>
+      <c r="D76" s="2">
+        <v>15477</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="3">
+        <v>90911</v>
+      </c>
+      <c r="I76" s="5" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V74" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="W74" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X74" s="3">
-        <v>1665</v>
-      </c>
-      <c r="Y74" s="5" t="e">
+      <c r="L76" s="3">
+        <v>1291</v>
+      </c>
+      <c r="M76" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z74" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA74" s="3" t="s">
+      <c r="O76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB74" s="2">
-        <v>977</v>
-      </c>
-      <c r="AC74" s="5" t="e">
+      <c r="P76" s="3">
+        <v>1390</v>
+      </c>
+      <c r="Q76" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="2">
-        <v>652487</v>
-      </c>
-      <c r="C75" s="2">
-        <v>17508</v>
-      </c>
-      <c r="D75" s="2">
-        <v>16158</v>
-      </c>
-      <c r="F75" s="3">
-        <v>5878</v>
-      </c>
-      <c r="G75" s="3">
-        <v>3703</v>
-      </c>
-      <c r="H75" s="3">
-        <v>9581</v>
-      </c>
-      <c r="I75" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
-        <v>173</v>
-      </c>
-      <c r="K75" s="3">
-        <v>179</v>
-      </c>
-      <c r="L75" s="3">
-        <v>352</v>
-      </c>
-      <c r="M75" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="3">
-        <v>142</v>
-      </c>
-      <c r="O75" s="3">
-        <v>100</v>
-      </c>
-      <c r="P75" s="3">
-        <v>242</v>
-      </c>
-      <c r="Q75" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="3">
-        <v>331020</v>
-      </c>
-      <c r="S75" s="3">
-        <v>311886</v>
-      </c>
-      <c r="T75" s="3">
-        <v>642906</v>
-      </c>
-      <c r="U75" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="3">
-        <v>9078</v>
-      </c>
-      <c r="W75" s="3">
-        <v>8078</v>
-      </c>
-      <c r="X75" s="3">
-        <v>17156</v>
-      </c>
-      <c r="Y75" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="3">
-        <v>8776</v>
-      </c>
-      <c r="AA75" s="3">
-        <v>7140</v>
-      </c>
-      <c r="AB75" s="2">
-        <v>15916</v>
-      </c>
-      <c r="AC75" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="2">
-        <v>929896</v>
-      </c>
-      <c r="C76" s="2">
-        <v>23239</v>
-      </c>
-      <c r="D76" s="2">
-        <v>15477</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H76" s="3">
-        <v>90911</v>
-      </c>
-      <c r="I76" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1291</v>
-      </c>
-      <c r="M76" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1390</v>
-      </c>
-      <c r="Q76" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>109</v>
       </c>
@@ -7788,2480 +8702,2804 @@
         <v>838985</v>
       </c>
       <c r="U76" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X76" s="3">
+        <v>21948</v>
+      </c>
+      <c r="Y76" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>14087</v>
+      </c>
+      <c r="AC76" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE76" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2">
+        <v>337880</v>
+      </c>
+      <c r="C77" s="2">
+        <v>10780</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5253</v>
+      </c>
+      <c r="F77" s="3">
+        <v>12062</v>
+      </c>
+      <c r="G77" s="3">
+        <v>10140</v>
+      </c>
+      <c r="H77" s="3">
+        <v>22202</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>498</v>
+      </c>
+      <c r="K77" s="3">
+        <v>448</v>
+      </c>
+      <c r="L77" s="3">
+        <v>946</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>325</v>
+      </c>
+      <c r="O77" s="3">
+        <v>252</v>
+      </c>
+      <c r="P77" s="3">
+        <v>577</v>
+      </c>
+      <c r="Q77" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>164230</v>
+      </c>
+      <c r="S77" s="3">
+        <v>151448</v>
+      </c>
+      <c r="T77" s="3">
+        <v>315678</v>
+      </c>
+      <c r="U77" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>5122</v>
+      </c>
+      <c r="W77" s="3">
+        <v>4712</v>
+      </c>
+      <c r="X77" s="3">
+        <v>9834</v>
+      </c>
+      <c r="Y77" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>2408</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>2268</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>4676</v>
+      </c>
+      <c r="AC77" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2308926</v>
+      </c>
+      <c r="C78" s="2">
+        <v>126404</v>
+      </c>
+      <c r="D78" s="2">
+        <v>74578</v>
+      </c>
+      <c r="F78" s="3">
+        <v>92177</v>
+      </c>
+      <c r="G78" s="3">
+        <v>85607</v>
+      </c>
+      <c r="H78" s="3">
+        <v>177784</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>4456</v>
+      </c>
+      <c r="K78" s="3">
+        <v>4465</v>
+      </c>
+      <c r="L78" s="3">
+        <v>8921</v>
+      </c>
+      <c r="M78" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <v>3381</v>
+      </c>
+      <c r="O78" s="3">
+        <v>2912</v>
+      </c>
+      <c r="P78" s="3">
+        <v>6293</v>
+      </c>
+      <c r="Q78" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="3">
+        <v>1075863</v>
+      </c>
+      <c r="S78" s="3">
+        <v>1055279</v>
+      </c>
+      <c r="T78" s="3">
+        <v>2131142</v>
+      </c>
+      <c r="U78" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="3">
+        <v>60606</v>
+      </c>
+      <c r="W78" s="3">
+        <v>56877</v>
+      </c>
+      <c r="X78" s="3">
+        <v>117483</v>
+      </c>
+      <c r="Y78" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>35972</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>32313</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>68285</v>
+      </c>
+      <c r="AC78" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2">
+        <v>879458</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="3">
+        <v>36134</v>
+      </c>
+      <c r="G79" s="3">
+        <v>21386</v>
+      </c>
+      <c r="H79" s="3">
+        <v>57520</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M79" s="5" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q79" s="5" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R79" s="3">
+        <v>428235</v>
+      </c>
+      <c r="S79" s="3">
+        <v>393703</v>
+      </c>
+      <c r="T79" s="3">
+        <v>821938</v>
+      </c>
+      <c r="U79" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y79" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC79" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE79" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG79" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1076875</v>
+      </c>
+      <c r="C80" s="2">
+        <v>62810</v>
+      </c>
+      <c r="D80" s="2">
+        <v>38927</v>
+      </c>
+      <c r="F80" s="3">
+        <v>25701</v>
+      </c>
+      <c r="G80" s="3">
+        <v>24742</v>
+      </c>
+      <c r="H80" s="3">
+        <v>50443</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>997</v>
+      </c>
+      <c r="K80" s="3">
+        <v>888</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1885</v>
+      </c>
+      <c r="M80" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>635</v>
+      </c>
+      <c r="O80" s="3">
+        <v>514</v>
+      </c>
+      <c r="P80" s="3">
+        <v>1149</v>
+      </c>
+      <c r="Q80" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
+        <v>522711</v>
+      </c>
+      <c r="S80" s="3">
+        <v>503721</v>
+      </c>
+      <c r="T80" s="3">
+        <v>1026432</v>
+      </c>
+      <c r="U80" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="3">
+        <v>31300</v>
+      </c>
+      <c r="W80" s="3">
+        <v>29625</v>
+      </c>
+      <c r="X80" s="3">
+        <v>60925</v>
+      </c>
+      <c r="Y80" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>19341</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>18437</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>37778</v>
+      </c>
+      <c r="AC80" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1025302</v>
+      </c>
+      <c r="C81" s="2">
+        <v>39408</v>
+      </c>
+      <c r="D81" s="2">
+        <v>26029</v>
+      </c>
+      <c r="F81" s="3">
+        <v>78586</v>
+      </c>
+      <c r="G81" s="3">
+        <v>67162</v>
+      </c>
+      <c r="H81" s="3">
+        <v>145748</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3441</v>
+      </c>
+      <c r="K81" s="3">
+        <v>3385</v>
+      </c>
+      <c r="L81" s="3">
+        <v>6826</v>
+      </c>
+      <c r="M81" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2440</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2075</v>
+      </c>
+      <c r="P81" s="3">
+        <v>4515</v>
+      </c>
+      <c r="Q81" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>456374</v>
+      </c>
+      <c r="S81" s="3">
+        <v>423180</v>
+      </c>
+      <c r="T81" s="3">
+        <v>879554</v>
+      </c>
+      <c r="U81" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>16872</v>
+      </c>
+      <c r="W81" s="3">
+        <v>15710</v>
+      </c>
+      <c r="X81" s="3">
+        <v>32582</v>
+      </c>
+      <c r="Y81" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>11426</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>10088</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>21514</v>
+      </c>
+      <c r="AC81" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1109063</v>
+      </c>
+      <c r="C82" s="2">
+        <v>40558</v>
+      </c>
+      <c r="D82" s="2">
+        <v>20778</v>
+      </c>
+      <c r="F82" s="3">
+        <v>170706</v>
+      </c>
+      <c r="G82" s="3">
+        <v>124530</v>
+      </c>
+      <c r="H82" s="3">
+        <v>295236</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>3142</v>
+      </c>
+      <c r="K82" s="3">
+        <v>4895</v>
+      </c>
+      <c r="L82" s="3">
+        <v>8037</v>
+      </c>
+      <c r="M82" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <v>2755</v>
+      </c>
+      <c r="O82" s="3">
+        <v>2396</v>
+      </c>
+      <c r="P82" s="3">
+        <v>5151</v>
+      </c>
+      <c r="Q82" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="3">
+        <v>436324</v>
+      </c>
+      <c r="S82" s="3">
+        <v>377503</v>
+      </c>
+      <c r="T82" s="3">
+        <v>813827</v>
+      </c>
+      <c r="U82" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="3">
+        <v>18128</v>
+      </c>
+      <c r="W82" s="3">
+        <v>14393</v>
+      </c>
+      <c r="X82" s="3">
+        <v>32521</v>
+      </c>
+      <c r="Y82" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="3">
+        <v>8634</v>
+      </c>
+      <c r="AA82" s="3">
+        <v>6993</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>15627</v>
+      </c>
+      <c r="AC82" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2">
+        <v>111667</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3714</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1841</v>
+      </c>
+      <c r="F83" s="3">
+        <v>34632</v>
+      </c>
+      <c r="G83" s="3">
+        <v>22160</v>
+      </c>
+      <c r="H83" s="3">
+        <v>56792</v>
+      </c>
+      <c r="I83" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>932</v>
+      </c>
+      <c r="K83" s="3">
+        <v>957</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1889</v>
+      </c>
+      <c r="M83" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>551</v>
+      </c>
+      <c r="O83" s="3">
+        <v>450</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1001</v>
+      </c>
+      <c r="Q83" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>31845</v>
+      </c>
+      <c r="S83" s="3">
+        <v>23030</v>
+      </c>
+      <c r="T83" s="3">
+        <v>54875</v>
+      </c>
+      <c r="U83" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>967</v>
+      </c>
+      <c r="W83" s="3">
+        <v>858</v>
+      </c>
+      <c r="X83" s="3">
+        <v>1825</v>
+      </c>
+      <c r="Y83" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>501</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>339</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>840</v>
+      </c>
+      <c r="AC83" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2">
+        <v>838075</v>
+      </c>
+      <c r="C84" s="2">
+        <v>28909</v>
+      </c>
+      <c r="D84" s="2">
+        <v>21653</v>
+      </c>
+      <c r="F84" s="3">
+        <v>47506</v>
+      </c>
+      <c r="G84" s="3">
+        <v>33263</v>
+      </c>
+      <c r="H84" s="3">
+        <v>80769</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>1405</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1344</v>
+      </c>
+      <c r="L84" s="3">
+        <v>2749</v>
+      </c>
+      <c r="M84" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>1258</v>
+      </c>
+      <c r="O84" s="3">
+        <v>1061</v>
+      </c>
+      <c r="P84" s="3">
+        <v>2319</v>
+      </c>
+      <c r="Q84" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>398637</v>
+      </c>
+      <c r="S84" s="3">
+        <v>358669</v>
+      </c>
+      <c r="T84" s="3">
+        <v>757306</v>
+      </c>
+      <c r="U84" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>13888</v>
+      </c>
+      <c r="W84" s="3">
+        <v>12272</v>
+      </c>
+      <c r="X84" s="3">
+        <v>26160</v>
+      </c>
+      <c r="Y84" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>9909</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>9425</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>19334</v>
+      </c>
+      <c r="AC84" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2">
+        <v>10553967</v>
+      </c>
+      <c r="C85" s="8">
+        <v>386616</v>
+      </c>
+      <c r="D85" s="2">
+        <v>244196</v>
+      </c>
+      <c r="F85" s="3">
+        <v>669547</v>
+      </c>
+      <c r="G85" s="3">
+        <v>498889</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1300425</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="9"/>
+        <v>-131989</v>
+      </c>
+      <c r="J85" s="3">
+        <v>17960</v>
+      </c>
+      <c r="K85" s="3">
+        <v>19170</v>
+      </c>
+      <c r="L85" s="3">
+        <v>39616</v>
+      </c>
+      <c r="M85" s="5">
+        <f t="shared" si="10"/>
+        <v>-2486</v>
+      </c>
+      <c r="N85" s="3">
+        <v>14334</v>
+      </c>
+      <c r="O85" s="3">
+        <v>12024</v>
+      </c>
+      <c r="P85" s="3">
+        <v>28612</v>
+      </c>
+      <c r="Q85" s="5">
+        <f t="shared" si="11"/>
+        <v>-2254</v>
+      </c>
+      <c r="R85" s="3">
+        <v>4321096</v>
+      </c>
+      <c r="S85" s="3">
+        <v>3973337</v>
+      </c>
+      <c r="T85" s="3">
+        <v>9253542</v>
+      </c>
+      <c r="U85" s="5">
+        <f t="shared" si="12"/>
+        <v>-959109</v>
+      </c>
+      <c r="V85" s="3">
+        <v>168581</v>
+      </c>
+      <c r="W85" s="3">
+        <v>154803</v>
+      </c>
+      <c r="X85" s="3">
+        <v>347000</v>
+      </c>
+      <c r="Y85" s="5">
+        <f t="shared" si="13"/>
+        <v>-23616</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>106956</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>93564</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>215584</v>
+      </c>
+      <c r="AC85" s="5">
+        <f t="shared" si="14"/>
+        <v>-15064</v>
+      </c>
+      <c r="AE85" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2">
+        <v>130032</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6630</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3505</v>
+      </c>
+      <c r="F86" s="3">
+        <v>20596</v>
+      </c>
+      <c r="G86" s="3">
+        <v>17290</v>
+      </c>
+      <c r="H86" s="3">
+        <v>37886</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1002</v>
+      </c>
+      <c r="K86" s="3">
+        <v>827</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1829</v>
+      </c>
+      <c r="M86" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>553</v>
+      </c>
+      <c r="O86" s="3">
+        <v>455</v>
+      </c>
+      <c r="P86" s="3">
+        <v>1008</v>
+      </c>
+      <c r="Q86" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>55908</v>
+      </c>
+      <c r="S86" s="3">
+        <v>36238</v>
+      </c>
+      <c r="T86" s="3">
+        <v>92146</v>
+      </c>
+      <c r="U86" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>2658</v>
+      </c>
+      <c r="W86" s="3">
+        <v>2143</v>
+      </c>
+      <c r="X86" s="3">
+        <v>4801</v>
+      </c>
+      <c r="Y86" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>1355</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>1142</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>2497</v>
+      </c>
+      <c r="AC86" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2">
+        <v>726315</v>
+      </c>
+      <c r="C87" s="2">
+        <v>32760</v>
+      </c>
+      <c r="D87" s="2">
+        <v>26616</v>
+      </c>
+      <c r="F87" s="3">
+        <v>42716</v>
+      </c>
+      <c r="G87" s="3">
+        <v>36850</v>
+      </c>
+      <c r="H87" s="3">
+        <v>79566</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1535</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1541</v>
+      </c>
+      <c r="L87" s="3">
+        <v>3076</v>
+      </c>
+      <c r="M87" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>2002</v>
+      </c>
+      <c r="O87" s="3">
+        <v>1432</v>
+      </c>
+      <c r="P87" s="3">
+        <v>3434</v>
+      </c>
+      <c r="Q87" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>339017</v>
+      </c>
+      <c r="S87" s="3">
+        <v>307732</v>
+      </c>
+      <c r="T87" s="3">
+        <v>646749</v>
+      </c>
+      <c r="U87" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>15288</v>
+      </c>
+      <c r="W87" s="3">
+        <v>14396</v>
+      </c>
+      <c r="X87" s="3">
+        <v>29684</v>
+      </c>
+      <c r="Y87" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>12124</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>11058</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>23182</v>
+      </c>
+      <c r="AC87" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2">
+        <v>764458</v>
+      </c>
+      <c r="C88" s="2">
+        <v>23917</v>
+      </c>
+      <c r="D88" s="2">
+        <v>21004</v>
+      </c>
+      <c r="F88" s="3">
+        <v>42688</v>
+      </c>
+      <c r="G88" s="3">
+        <v>28428</v>
+      </c>
+      <c r="H88" s="3">
+        <v>71116</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1299</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1267</v>
+      </c>
+      <c r="L88" s="3">
+        <v>2566</v>
+      </c>
+      <c r="M88" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>1390</v>
+      </c>
+      <c r="O88" s="3">
+        <v>994</v>
+      </c>
+      <c r="P88" s="3">
+        <v>2384</v>
+      </c>
+      <c r="Q88" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>353980</v>
+      </c>
+      <c r="S88" s="3">
+        <v>339362</v>
+      </c>
+      <c r="T88" s="3">
+        <v>693342</v>
+      </c>
+      <c r="U88" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>11294</v>
+      </c>
+      <c r="W88" s="3">
+        <v>10057</v>
+      </c>
+      <c r="X88" s="3">
+        <v>21351</v>
+      </c>
+      <c r="Y88" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>9485</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>9135</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>18620</v>
+      </c>
+      <c r="AC88" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2">
+        <v>594007</v>
+      </c>
+      <c r="C89" s="2">
+        <v>25668</v>
+      </c>
+      <c r="D89" s="2">
+        <v>21790</v>
+      </c>
+      <c r="F89" s="3">
+        <v>44483</v>
+      </c>
+      <c r="G89" s="3">
+        <v>42418</v>
+      </c>
+      <c r="H89" s="3">
+        <v>86901</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2067</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2211</v>
+      </c>
+      <c r="L89" s="3">
+        <v>4278</v>
+      </c>
+      <c r="M89" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1854</v>
+      </c>
+      <c r="O89" s="3">
+        <v>1770</v>
+      </c>
+      <c r="P89" s="3">
+        <v>3624</v>
+      </c>
+      <c r="Q89" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>269894</v>
+      </c>
+      <c r="S89" s="3">
+        <v>237212</v>
+      </c>
+      <c r="T89" s="3">
+        <v>507106</v>
+      </c>
+      <c r="U89" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>10936</v>
+      </c>
+      <c r="W89" s="3">
+        <v>10454</v>
+      </c>
+      <c r="X89" s="3">
+        <v>21390</v>
+      </c>
+      <c r="Y89" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>9466</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>18166</v>
+      </c>
+      <c r="AC89" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2">
+        <v>239970</v>
+      </c>
+      <c r="C90" s="2">
+        <v>8466</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4269</v>
+      </c>
+      <c r="F90" s="3">
+        <v>45464</v>
+      </c>
+      <c r="G90" s="3">
+        <v>15026</v>
+      </c>
+      <c r="H90" s="3">
+        <v>60490</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>850</v>
+      </c>
+      <c r="K90" s="3">
+        <v>804</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1654</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1029</v>
+      </c>
+      <c r="O90" s="3">
+        <v>399</v>
+      </c>
+      <c r="P90" s="3">
+        <v>1428</v>
+      </c>
+      <c r="Q90" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="3">
+        <v>99224</v>
+      </c>
+      <c r="S90" s="3">
+        <v>80256</v>
+      </c>
+      <c r="T90" s="3">
+        <v>179480</v>
+      </c>
+      <c r="U90" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="3">
+        <v>3521</v>
+      </c>
+      <c r="W90" s="3">
+        <v>3291</v>
+      </c>
+      <c r="X90" s="3">
+        <v>6812</v>
+      </c>
+      <c r="Y90" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>1491</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>1350</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>2841</v>
+      </c>
+      <c r="AC90" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1808935</v>
+      </c>
+      <c r="C91" s="2">
+        <v>87863</v>
+      </c>
+      <c r="D91" s="2">
+        <v>57339</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" s="3">
+        <v>91339</v>
+      </c>
+      <c r="I91" s="5" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V76" s="3" t="s">
+      <c r="J91" s="3">
+        <v>1674</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1638</v>
+      </c>
+      <c r="L91" s="3">
+        <v>3312</v>
+      </c>
+      <c r="M91" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1482</v>
+      </c>
+      <c r="O91" s="3">
+        <v>1174</v>
+      </c>
+      <c r="P91" s="3">
+        <v>2656</v>
+      </c>
+      <c r="Q91" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="W76" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X76" s="3">
-        <v>21948</v>
-      </c>
-      <c r="Y76" s="5" t="e">
+      <c r="T91" s="3">
+        <v>1717596</v>
+      </c>
+      <c r="U91" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V91" s="3">
+        <v>43288</v>
+      </c>
+      <c r="W91" s="3">
+        <v>41263</v>
+      </c>
+      <c r="X91" s="3">
+        <v>84551</v>
+      </c>
+      <c r="Y91" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>28751</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>25932</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>54683</v>
+      </c>
+      <c r="AC91" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2415058</v>
+      </c>
+      <c r="C92" s="2">
+        <v>111344</v>
+      </c>
+      <c r="D92" s="2">
+        <v>75096</v>
+      </c>
+      <c r="F92" s="3">
+        <v>76777</v>
+      </c>
+      <c r="G92" s="3">
+        <v>74572</v>
+      </c>
+      <c r="H92" s="3">
+        <v>151349</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>2639</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2476</v>
+      </c>
+      <c r="L92" s="3">
+        <v>5115</v>
+      </c>
+      <c r="M92" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>2339</v>
+      </c>
+      <c r="O92" s="3">
+        <v>2119</v>
+      </c>
+      <c r="P92" s="3">
+        <v>4458</v>
+      </c>
+      <c r="Q92" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>1169914</v>
+      </c>
+      <c r="S92" s="3">
+        <v>1093795</v>
+      </c>
+      <c r="T92" s="3">
+        <v>2263709</v>
+      </c>
+      <c r="U92" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>53700</v>
+      </c>
+      <c r="W92" s="3">
+        <v>52529</v>
+      </c>
+      <c r="X92" s="3">
+        <v>106229</v>
+      </c>
+      <c r="Y92" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>40747</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>29891</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>70638</v>
+      </c>
+      <c r="AC92" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2">
+        <v>261460</v>
+      </c>
+      <c r="C93" s="2">
+        <v>11742</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7154</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5302</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4581</v>
+      </c>
+      <c r="H93" s="3">
+        <v>9883</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>241</v>
+      </c>
+      <c r="K93" s="3">
+        <v>217</v>
+      </c>
+      <c r="L93" s="3">
+        <v>458</v>
+      </c>
+      <c r="M93" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>161</v>
+      </c>
+      <c r="O93" s="3">
+        <v>141</v>
+      </c>
+      <c r="P93" s="3">
+        <v>302</v>
+      </c>
+      <c r="Q93" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>128812</v>
+      </c>
+      <c r="S93" s="3">
+        <v>122765</v>
+      </c>
+      <c r="T93" s="3">
+        <v>251577</v>
+      </c>
+      <c r="U93" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>5709</v>
+      </c>
+      <c r="W93" s="3">
+        <v>5575</v>
+      </c>
+      <c r="X93" s="3">
+        <v>11284</v>
+      </c>
+      <c r="Y93" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>3401</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>3451</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>6852</v>
+      </c>
+      <c r="AC93" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2">
+        <v>6940235</v>
+      </c>
+      <c r="C94" s="2">
+        <v>308390</v>
+      </c>
+      <c r="D94" s="2">
+        <v>216773</v>
+      </c>
+      <c r="F94" s="3">
+        <v>278026</v>
+      </c>
+      <c r="G94" s="3">
+        <v>219165</v>
+      </c>
+      <c r="H94" s="3">
+        <v>588530</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="9"/>
+        <v>-91339</v>
+      </c>
+      <c r="J94" s="3">
+        <v>11307</v>
+      </c>
+      <c r="K94" s="3">
+        <v>10981</v>
+      </c>
+      <c r="L94" s="3">
+        <v>22288</v>
+      </c>
+      <c r="M94" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>10810</v>
+      </c>
+      <c r="O94" s="3">
+        <v>8484</v>
+      </c>
+      <c r="P94" s="3">
+        <v>19294</v>
+      </c>
+      <c r="Q94" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>2416749</v>
+      </c>
+      <c r="S94" s="3">
+        <v>2217360</v>
+      </c>
+      <c r="T94" s="3">
+        <v>6351705</v>
+      </c>
+      <c r="U94" s="5">
+        <f t="shared" si="12"/>
+        <v>-1717596</v>
+      </c>
+      <c r="V94" s="3">
+        <v>146394</v>
+      </c>
+      <c r="W94" s="3">
+        <v>139708</v>
+      </c>
+      <c r="X94" s="3">
+        <v>286102</v>
+      </c>
+      <c r="Y94" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>106820</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>90659</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>197479</v>
+      </c>
+      <c r="AC94" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2">
+        <v>934612</v>
+      </c>
+      <c r="C95" s="2">
+        <v>28487</v>
+      </c>
+      <c r="D95" s="2">
+        <v>19559</v>
+      </c>
+      <c r="F95" s="3">
+        <v>60009</v>
+      </c>
+      <c r="G95" s="3">
+        <v>57069</v>
+      </c>
+      <c r="H95" s="3">
+        <v>117078</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3127</v>
+      </c>
+      <c r="K95" s="3">
+        <v>2527</v>
+      </c>
+      <c r="L95" s="3">
+        <v>5654</v>
+      </c>
+      <c r="M95" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <v>2242</v>
+      </c>
+      <c r="O95" s="3">
+        <v>2075</v>
+      </c>
+      <c r="P95" s="3">
+        <v>4317</v>
+      </c>
+      <c r="Q95" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="3">
+        <v>429213</v>
+      </c>
+      <c r="S95" s="3">
+        <v>388321</v>
+      </c>
+      <c r="T95" s="3">
+        <v>817534</v>
+      </c>
+      <c r="U95" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="3">
+        <v>13017</v>
+      </c>
+      <c r="W95" s="3">
+        <v>9816</v>
+      </c>
+      <c r="X95" s="3">
+        <v>22833</v>
+      </c>
+      <c r="Y95" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>8718</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>6524</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>15242</v>
+      </c>
+      <c r="AC95" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2">
+        <v>388384</v>
+      </c>
+      <c r="C96" s="2">
+        <v>8327</v>
+      </c>
+      <c r="D96" s="2">
+        <v>6099</v>
+      </c>
+      <c r="F96" s="3">
+        <v>24166</v>
+      </c>
+      <c r="G96" s="3">
+        <v>17045</v>
+      </c>
+      <c r="H96" s="3">
+        <v>41211</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>828</v>
+      </c>
+      <c r="K96" s="3">
+        <v>759</v>
+      </c>
+      <c r="L96" s="3">
+        <v>1587</v>
+      </c>
+      <c r="M96" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>553</v>
+      </c>
+      <c r="O96" s="3">
+        <v>418</v>
+      </c>
+      <c r="P96" s="3">
+        <v>971</v>
+      </c>
+      <c r="Q96" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>183673</v>
+      </c>
+      <c r="S96" s="3">
+        <v>163500</v>
+      </c>
+      <c r="T96" s="3">
+        <v>347173</v>
+      </c>
+      <c r="U96" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X96" s="3">
+        <v>6740</v>
+      </c>
+      <c r="Y96" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>5128</v>
+      </c>
+      <c r="AC96" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE96" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1006284</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" s="3">
+        <v>75651</v>
+      </c>
+      <c r="G97" s="3">
+        <v>56867</v>
+      </c>
+      <c r="H97" s="3">
+        <v>132518</v>
+      </c>
+      <c r="I97" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M97" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z76" s="3" t="s">
+      <c r="N97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA76" s="3" t="s">
+      <c r="O97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB76" s="2">
-        <v>14087</v>
-      </c>
-      <c r="AC76" s="5" t="e">
+      <c r="P97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q97" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="2">
-        <v>337880</v>
-      </c>
-      <c r="C77" s="2">
-        <v>10780</v>
-      </c>
-      <c r="D77" s="2">
-        <v>5253</v>
-      </c>
-      <c r="F77" s="3">
-        <v>12062</v>
-      </c>
-      <c r="G77" s="3">
-        <v>10140</v>
-      </c>
-      <c r="H77" s="3">
-        <v>22202</v>
-      </c>
-      <c r="I77" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
-        <v>498</v>
-      </c>
-      <c r="K77" s="3">
-        <v>448</v>
-      </c>
-      <c r="L77" s="3">
-        <v>946</v>
-      </c>
-      <c r="M77" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="3">
-        <v>325</v>
-      </c>
-      <c r="O77" s="3">
-        <v>252</v>
-      </c>
-      <c r="P77" s="3">
-        <v>577</v>
-      </c>
-      <c r="Q77" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="3">
-        <v>164230</v>
-      </c>
-      <c r="S77" s="3">
-        <v>151448</v>
-      </c>
-      <c r="T77" s="3">
-        <v>315678</v>
-      </c>
-      <c r="U77" s="5">
+      <c r="R97" s="3">
+        <v>480014</v>
+      </c>
+      <c r="S97" s="3">
+        <v>393752</v>
+      </c>
+      <c r="T97" s="3">
+        <v>873766</v>
+      </c>
+      <c r="U97" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y97" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC97" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE97" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG97" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2">
+        <v>740186</v>
+      </c>
+      <c r="C98" s="2">
+        <v>13779</v>
+      </c>
+      <c r="D98" s="2">
+        <v>12956</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="3">
+        <v>56191</v>
+      </c>
+      <c r="I98" s="5" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="3">
-        <v>5122</v>
-      </c>
-      <c r="W77" s="3">
-        <v>4712</v>
-      </c>
-      <c r="X77" s="3">
-        <v>9834</v>
-      </c>
-      <c r="Y77" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="3">
-        <v>2408</v>
-      </c>
-      <c r="AA77" s="3">
-        <v>2268</v>
-      </c>
-      <c r="AB77" s="2">
-        <v>4676</v>
-      </c>
-      <c r="AC77" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2308926</v>
-      </c>
-      <c r="C78" s="2">
-        <v>126404</v>
-      </c>
-      <c r="D78" s="2">
-        <v>74578</v>
-      </c>
-      <c r="F78" s="3">
-        <v>92177</v>
-      </c>
-      <c r="G78" s="3">
-        <v>85607</v>
-      </c>
-      <c r="H78" s="3">
-        <v>177784</v>
-      </c>
-      <c r="I78" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>4456</v>
-      </c>
-      <c r="K78" s="3">
-        <v>4465</v>
-      </c>
-      <c r="L78" s="3">
-        <v>8921</v>
-      </c>
-      <c r="M78" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="3">
-        <v>3381</v>
-      </c>
-      <c r="O78" s="3">
-        <v>2912</v>
-      </c>
-      <c r="P78" s="3">
-        <v>6293</v>
-      </c>
-      <c r="Q78" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R78" s="3">
-        <v>1075863</v>
-      </c>
-      <c r="S78" s="3">
-        <v>1055279</v>
-      </c>
-      <c r="T78" s="3">
-        <v>2131142</v>
-      </c>
-      <c r="U78" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="3">
-        <v>60606</v>
-      </c>
-      <c r="W78" s="3">
-        <v>56877</v>
-      </c>
-      <c r="X78" s="3">
-        <v>117483</v>
-      </c>
-      <c r="Y78" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>35972</v>
-      </c>
-      <c r="AA78" s="3">
-        <v>32313</v>
-      </c>
-      <c r="AB78" s="2">
-        <v>68285</v>
-      </c>
-      <c r="AC78" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="2">
-        <v>879458</v>
-      </c>
-      <c r="C79" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="K98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="3">
-        <v>36134</v>
-      </c>
-      <c r="G79" s="3">
-        <v>21386</v>
-      </c>
-      <c r="H79" s="3">
-        <v>57520</v>
-      </c>
-      <c r="I79" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M79" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q79" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R79" s="3">
-        <v>428235</v>
-      </c>
-      <c r="S79" s="3">
-        <v>393703</v>
-      </c>
-      <c r="T79" s="3">
-        <v>821938</v>
-      </c>
-      <c r="U79" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y79" s="5" t="e">
+      <c r="L98" s="3">
+        <v>2047</v>
+      </c>
+      <c r="M98" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z79" s="3" t="s">
+      <c r="N98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA79" s="3" t="s">
+      <c r="O98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC79" s="5" t="e">
+      <c r="P98" s="3">
+        <v>1660</v>
+      </c>
+      <c r="Q98" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1076875</v>
-      </c>
-      <c r="C80" s="2">
-        <v>62810</v>
-      </c>
-      <c r="D80" s="2">
-        <v>38927</v>
-      </c>
-      <c r="F80" s="3">
-        <v>25701</v>
-      </c>
-      <c r="G80" s="3">
-        <v>24742</v>
-      </c>
-      <c r="H80" s="3">
-        <v>50443</v>
-      </c>
-      <c r="I80" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>997</v>
-      </c>
-      <c r="K80" s="3">
-        <v>888</v>
-      </c>
-      <c r="L80" s="3">
-        <v>1885</v>
-      </c>
-      <c r="M80" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="3">
-        <v>635</v>
-      </c>
-      <c r="O80" s="3">
-        <v>514</v>
-      </c>
-      <c r="P80" s="3">
-        <v>1149</v>
-      </c>
-      <c r="Q80" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="3">
-        <v>522711</v>
-      </c>
-      <c r="S80" s="3">
-        <v>503721</v>
-      </c>
-      <c r="T80" s="3">
-        <v>1026432</v>
-      </c>
-      <c r="U80" s="5">
+      <c r="R98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T98" s="3">
+        <v>683995</v>
+      </c>
+      <c r="U98" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X98" s="3">
+        <v>11732</v>
+      </c>
+      <c r="Y98" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>11296</v>
+      </c>
+      <c r="AC98" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE98" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG98" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1078708</v>
+      </c>
+      <c r="C99" s="2">
+        <v>33595</v>
+      </c>
+      <c r="D99" s="2">
+        <v>21645</v>
+      </c>
+      <c r="F99" s="3">
+        <v>36102</v>
+      </c>
+      <c r="G99" s="3">
+        <v>28061</v>
+      </c>
+      <c r="H99" s="3">
+        <v>64163</v>
+      </c>
+      <c r="I99" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V80" s="3">
-        <v>31300</v>
-      </c>
-      <c r="W80" s="3">
-        <v>29625</v>
-      </c>
-      <c r="X80" s="3">
-        <v>60925</v>
-      </c>
-      <c r="Y80" s="5">
+      <c r="J99" s="3">
+        <v>1414</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1375</v>
+      </c>
+      <c r="L99" s="3">
+        <v>2789</v>
+      </c>
+      <c r="M99" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z80" s="3">
-        <v>19341</v>
-      </c>
-      <c r="AA80" s="3">
-        <v>18437</v>
-      </c>
-      <c r="AB80" s="2">
-        <v>37778</v>
-      </c>
-      <c r="AC80" s="5">
+      <c r="N99" s="3">
+        <v>1043</v>
+      </c>
+      <c r="O99" s="3">
+        <v>884</v>
+      </c>
+      <c r="P99" s="3">
+        <v>1927</v>
+      </c>
+      <c r="Q99" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1026302</v>
-      </c>
-      <c r="C81" s="2">
-        <v>39408</v>
-      </c>
-      <c r="D81" s="2">
-        <v>26029</v>
-      </c>
-      <c r="F81" s="3">
-        <v>78586</v>
-      </c>
-      <c r="G81" s="3">
-        <v>67162</v>
-      </c>
-      <c r="H81" s="3">
-        <v>145748</v>
-      </c>
-      <c r="I81" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>3441</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3385</v>
-      </c>
-      <c r="L81" s="3">
-        <v>6826</v>
-      </c>
-      <c r="M81" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2440</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2075</v>
-      </c>
-      <c r="P81" s="3">
-        <v>4515</v>
-      </c>
-      <c r="Q81" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>456374</v>
-      </c>
-      <c r="S81" s="3">
-        <v>423180</v>
-      </c>
-      <c r="T81" s="3">
-        <v>879554</v>
-      </c>
-      <c r="U81" s="5">
+      <c r="R99" s="3">
+        <v>556103</v>
+      </c>
+      <c r="S99" s="3">
+        <v>458442</v>
+      </c>
+      <c r="T99" s="3">
+        <v>1014545</v>
+      </c>
+      <c r="U99" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>16768</v>
+      </c>
+      <c r="W99" s="3">
+        <v>14038</v>
+      </c>
+      <c r="X99" s="3">
+        <v>30806</v>
+      </c>
+      <c r="Y99" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>10885</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>8833</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>19718</v>
+      </c>
+      <c r="AC99" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1629180</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="3">
+        <v>94261</v>
+      </c>
+      <c r="G100" s="3">
+        <v>79159</v>
+      </c>
+      <c r="H100" s="3">
+        <v>173420</v>
+      </c>
+      <c r="I100" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V81" s="3">
-        <v>16872</v>
-      </c>
-      <c r="W81" s="3">
-        <v>15710</v>
-      </c>
-      <c r="X81" s="3">
-        <v>32582</v>
-      </c>
-      <c r="Y81" s="5">
+      <c r="J100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M100" s="5" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>11426</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>10088</v>
-      </c>
-      <c r="AB81" s="2">
-        <v>21514</v>
-      </c>
-      <c r="AC81" s="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q100" s="5" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1109063</v>
-      </c>
-      <c r="C82" s="2">
-        <v>40558</v>
-      </c>
-      <c r="D82" s="2">
-        <v>20778</v>
-      </c>
-      <c r="F82" s="3">
-        <v>170706</v>
-      </c>
-      <c r="G82" s="3">
-        <v>124530</v>
-      </c>
-      <c r="H82" s="3">
-        <v>295236</v>
-      </c>
-      <c r="I82" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
-        <v>3142</v>
-      </c>
-      <c r="K82" s="3">
-        <v>4895</v>
-      </c>
-      <c r="L82" s="3">
-        <v>8037</v>
-      </c>
-      <c r="M82" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="3">
-        <v>2755</v>
-      </c>
-      <c r="O82" s="3">
-        <v>2396</v>
-      </c>
-      <c r="P82" s="3">
-        <v>5151</v>
-      </c>
-      <c r="Q82" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R82" s="3">
-        <v>436324</v>
-      </c>
-      <c r="S82" s="3">
-        <v>377503</v>
-      </c>
-      <c r="T82" s="3">
-        <v>813827</v>
-      </c>
-      <c r="U82" s="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R100" s="3">
+        <v>796744</v>
+      </c>
+      <c r="S100" s="3">
+        <v>659016</v>
+      </c>
+      <c r="T100" s="3">
+        <v>1455760</v>
+      </c>
+      <c r="U100" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y100" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC100" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE100" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG100" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="2">
+        <v>568342</v>
+      </c>
+      <c r="C101" s="2">
+        <v>19771</v>
+      </c>
+      <c r="D101" s="2">
+        <v>11624</v>
+      </c>
+      <c r="F101" s="3">
+        <v>15095</v>
+      </c>
+      <c r="G101" s="3">
+        <v>13775</v>
+      </c>
+      <c r="H101" s="3">
+        <v>28870</v>
+      </c>
+      <c r="I101" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V82" s="3">
-        <v>18128</v>
-      </c>
-      <c r="W82" s="3">
-        <v>14393</v>
-      </c>
-      <c r="X82" s="3">
-        <v>32521</v>
-      </c>
-      <c r="Y82" s="5">
+      <c r="J101" s="3">
+        <v>980</v>
+      </c>
+      <c r="K101" s="3">
+        <v>946</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1926</v>
+      </c>
+      <c r="M101" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z82" s="3">
-        <v>8634</v>
-      </c>
-      <c r="AA82" s="3">
-        <v>6993</v>
-      </c>
-      <c r="AB82" s="2">
-        <v>15627</v>
-      </c>
-      <c r="AC82" s="5">
+      <c r="N101" s="3">
+        <v>669</v>
+      </c>
+      <c r="O101" s="3">
+        <v>505</v>
+      </c>
+      <c r="P101" s="3">
+        <v>1174</v>
+      </c>
+      <c r="Q101" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="2">
-        <v>111667</v>
-      </c>
-      <c r="C83" s="2">
-        <v>3714</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1841</v>
-      </c>
-      <c r="F83" s="3">
-        <v>34632</v>
-      </c>
-      <c r="G83" s="3">
-        <v>22160</v>
-      </c>
-      <c r="H83" s="3">
-        <v>56792</v>
-      </c>
-      <c r="I83" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>932</v>
-      </c>
-      <c r="K83" s="3">
-        <v>957</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1889</v>
-      </c>
-      <c r="M83" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>551</v>
-      </c>
-      <c r="O83" s="3">
-        <v>450</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1001</v>
-      </c>
-      <c r="Q83" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>31845</v>
-      </c>
-      <c r="S83" s="3">
-        <v>23030</v>
-      </c>
-      <c r="T83" s="3">
-        <v>54875</v>
-      </c>
-      <c r="U83" s="5">
+      <c r="R101" s="3">
+        <v>284416</v>
+      </c>
+      <c r="S101" s="3">
+        <v>255056</v>
+      </c>
+      <c r="T101" s="3">
+        <v>539472</v>
+      </c>
+      <c r="U101" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>9623</v>
+      </c>
+      <c r="W101" s="3">
+        <v>8222</v>
+      </c>
+      <c r="X101" s="3">
+        <v>17845</v>
+      </c>
+      <c r="Y101" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>5885</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>4565</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>10450</v>
+      </c>
+      <c r="AC101" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>724639</v>
+      </c>
+      <c r="C102" s="2">
+        <v>20005</v>
+      </c>
+      <c r="D102" s="2">
+        <v>15101</v>
+      </c>
+      <c r="F102" s="3">
+        <v>28803</v>
+      </c>
+      <c r="G102" s="3">
+        <v>27213</v>
+      </c>
+      <c r="H102" s="3">
+        <v>56016</v>
+      </c>
+      <c r="I102" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V83" s="3">
-        <v>967</v>
-      </c>
-      <c r="W83" s="3">
-        <v>858</v>
-      </c>
-      <c r="X83" s="3">
-        <v>1825</v>
-      </c>
-      <c r="Y83" s="5">
+      <c r="J102" s="3">
+        <v>1367</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1291</v>
+      </c>
+      <c r="L102" s="3">
+        <v>2658</v>
+      </c>
+      <c r="M102" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z83" s="3">
-        <v>501</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>339</v>
-      </c>
-      <c r="AB83" s="2">
-        <v>840</v>
-      </c>
-      <c r="AC83" s="5">
+      <c r="N102" s="3">
+        <v>798</v>
+      </c>
+      <c r="O102" s="3">
+        <v>797</v>
+      </c>
+      <c r="P102" s="3">
+        <v>1595</v>
+      </c>
+      <c r="Q102" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="2">
-        <v>838075</v>
-      </c>
-      <c r="C84" s="2">
-        <v>28909</v>
-      </c>
-      <c r="D84" s="2">
-        <v>21653</v>
-      </c>
-      <c r="F84" s="3">
-        <v>47506</v>
-      </c>
-      <c r="G84" s="3">
-        <v>33263</v>
-      </c>
-      <c r="H84" s="3">
-        <v>80769</v>
-      </c>
-      <c r="I84" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
-        <v>1405</v>
-      </c>
-      <c r="K84" s="3">
-        <v>1344</v>
-      </c>
-      <c r="L84" s="3">
-        <v>2749</v>
-      </c>
-      <c r="M84" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
-        <v>1258</v>
-      </c>
-      <c r="O84" s="3">
-        <v>1061</v>
-      </c>
-      <c r="P84" s="3">
-        <v>2319</v>
-      </c>
-      <c r="Q84" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R84" s="3">
-        <v>398637</v>
-      </c>
-      <c r="S84" s="3">
-        <v>358669</v>
-      </c>
-      <c r="T84" s="3">
-        <v>757306</v>
-      </c>
-      <c r="U84" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V84" s="3">
-        <v>13888</v>
-      </c>
-      <c r="W84" s="3">
-        <v>12272</v>
-      </c>
-      <c r="X84" s="3">
-        <v>26160</v>
-      </c>
-      <c r="Y84" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="3">
-        <v>9909</v>
-      </c>
-      <c r="AA84" s="3">
-        <v>9425</v>
-      </c>
-      <c r="AB84" s="2">
-        <v>19334</v>
-      </c>
-      <c r="AC84" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="2">
-        <v>10553967</v>
-      </c>
-      <c r="C85" s="2">
-        <v>386610</v>
-      </c>
-      <c r="D85" s="2">
-        <v>244196</v>
-      </c>
-      <c r="F85" s="3">
-        <v>669547</v>
-      </c>
-      <c r="G85" s="3">
-        <v>498889</v>
-      </c>
-      <c r="H85" s="3">
-        <v>1300425</v>
-      </c>
-      <c r="I85" s="5">
-        <f t="shared" si="6"/>
-        <v>-131989</v>
-      </c>
-      <c r="J85" s="3">
-        <v>17960</v>
-      </c>
-      <c r="K85" s="3">
-        <v>19170</v>
-      </c>
-      <c r="L85" s="3">
-        <v>39616</v>
-      </c>
-      <c r="M85" s="5">
-        <f t="shared" si="7"/>
-        <v>-2486</v>
-      </c>
-      <c r="N85" s="3">
-        <v>14334</v>
-      </c>
-      <c r="O85" s="3">
-        <v>12024</v>
-      </c>
-      <c r="P85" s="3">
-        <v>28612</v>
-      </c>
-      <c r="Q85" s="5">
-        <f t="shared" si="8"/>
-        <v>-2254</v>
-      </c>
-      <c r="R85" s="3">
-        <v>4321096</v>
-      </c>
-      <c r="S85" s="3">
-        <v>3973337</v>
-      </c>
-      <c r="T85" s="3">
-        <v>9253542</v>
-      </c>
-      <c r="U85" s="5">
-        <f t="shared" si="9"/>
-        <v>-959109</v>
-      </c>
-      <c r="V85" s="3">
-        <v>168581</v>
-      </c>
-      <c r="W85" s="3">
-        <v>154803</v>
-      </c>
-      <c r="X85" s="3">
-        <v>347000</v>
-      </c>
-      <c r="Y85" s="5">
-        <f t="shared" si="10"/>
-        <v>-23616</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>106956</v>
-      </c>
-      <c r="AA85" s="3">
-        <v>93564</v>
-      </c>
-      <c r="AB85" s="2">
-        <v>215584</v>
-      </c>
-      <c r="AC85" s="5">
-        <f t="shared" si="11"/>
-        <v>-15064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="2">
-        <v>130032</v>
-      </c>
-      <c r="C86" s="2">
-        <v>6630</v>
-      </c>
-      <c r="D86" s="2">
-        <v>3505</v>
-      </c>
-      <c r="F86" s="3">
-        <v>20596</v>
-      </c>
-      <c r="G86" s="3">
-        <v>17290</v>
-      </c>
-      <c r="H86" s="3">
-        <v>37886</v>
-      </c>
-      <c r="I86" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
-        <v>1002</v>
-      </c>
-      <c r="K86" s="3">
-        <v>827</v>
-      </c>
-      <c r="L86" s="3">
-        <v>1829</v>
-      </c>
-      <c r="M86" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>553</v>
-      </c>
-      <c r="O86" s="3">
-        <v>455</v>
-      </c>
-      <c r="P86" s="3">
-        <v>1008</v>
-      </c>
-      <c r="Q86" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="3">
-        <v>55908</v>
-      </c>
-      <c r="S86" s="3">
-        <v>36238</v>
-      </c>
-      <c r="T86" s="3">
-        <v>92146</v>
-      </c>
-      <c r="U86" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="3">
-        <v>2658</v>
-      </c>
-      <c r="W86" s="3">
-        <v>2143</v>
-      </c>
-      <c r="X86" s="3">
-        <v>4801</v>
-      </c>
-      <c r="Y86" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="3">
-        <v>1355</v>
-      </c>
-      <c r="AA86" s="3">
-        <v>1142</v>
-      </c>
-      <c r="AB86" s="2">
-        <v>2497</v>
-      </c>
-      <c r="AC86" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="2">
-        <v>726315</v>
-      </c>
-      <c r="C87" s="2">
-        <v>32760</v>
-      </c>
-      <c r="D87" s="2">
-        <v>26616</v>
-      </c>
-      <c r="F87" s="3">
-        <v>42716</v>
-      </c>
-      <c r="G87" s="3">
-        <v>36850</v>
-      </c>
-      <c r="H87" s="3">
-        <v>79566</v>
-      </c>
-      <c r="I87" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
-        <v>1535</v>
-      </c>
-      <c r="K87" s="3">
-        <v>1541</v>
-      </c>
-      <c r="L87" s="3">
-        <v>3076</v>
-      </c>
-      <c r="M87" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N87" s="3">
-        <v>2002</v>
-      </c>
-      <c r="O87" s="3">
-        <v>1432</v>
-      </c>
-      <c r="P87" s="3">
-        <v>3434</v>
-      </c>
-      <c r="Q87" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="3">
-        <v>339017</v>
-      </c>
-      <c r="S87" s="3">
-        <v>307732</v>
-      </c>
-      <c r="T87" s="3">
-        <v>646749</v>
-      </c>
-      <c r="U87" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="3">
-        <v>15288</v>
-      </c>
-      <c r="W87" s="3">
-        <v>14396</v>
-      </c>
-      <c r="X87" s="3">
-        <v>29684</v>
-      </c>
-      <c r="Y87" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="3">
-        <v>12124</v>
-      </c>
-      <c r="AA87" s="3">
-        <v>11058</v>
-      </c>
-      <c r="AB87" s="2">
-        <v>23182</v>
-      </c>
-      <c r="AC87" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="2">
-        <v>764458</v>
-      </c>
-      <c r="C88" s="2">
-        <v>23917</v>
-      </c>
-      <c r="D88" s="2">
-        <v>21004</v>
-      </c>
-      <c r="F88" s="3">
-        <v>42688</v>
-      </c>
-      <c r="G88" s="3">
-        <v>28428</v>
-      </c>
-      <c r="H88" s="3">
-        <v>71116</v>
-      </c>
-      <c r="I88" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
-        <v>1299</v>
-      </c>
-      <c r="K88" s="3">
-        <v>1267</v>
-      </c>
-      <c r="L88" s="3">
-        <v>2566</v>
-      </c>
-      <c r="M88" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="3">
-        <v>1390</v>
-      </c>
-      <c r="O88" s="3">
-        <v>994</v>
-      </c>
-      <c r="P88" s="3">
-        <v>2384</v>
-      </c>
-      <c r="Q88" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="3">
-        <v>353980</v>
-      </c>
-      <c r="S88" s="3">
-        <v>339362</v>
-      </c>
-      <c r="T88" s="3">
-        <v>693342</v>
-      </c>
-      <c r="U88" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="3">
-        <v>11294</v>
-      </c>
-      <c r="W88" s="3">
-        <v>10057</v>
-      </c>
-      <c r="X88" s="3">
-        <v>21351</v>
-      </c>
-      <c r="Y88" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="3">
-        <v>9485</v>
-      </c>
-      <c r="AA88" s="3">
-        <v>9135</v>
-      </c>
-      <c r="AB88" s="2">
-        <v>18620</v>
-      </c>
-      <c r="AC88" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="2">
-        <v>594007</v>
-      </c>
-      <c r="C89" s="2">
-        <v>25668</v>
-      </c>
-      <c r="D89" s="2">
-        <v>21790</v>
-      </c>
-      <c r="F89" s="3">
-        <v>44483</v>
-      </c>
-      <c r="G89" s="3">
-        <v>42418</v>
-      </c>
-      <c r="H89" s="3">
-        <v>86901</v>
-      </c>
-      <c r="I89" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>2067</v>
-      </c>
-      <c r="K89" s="3">
-        <v>2211</v>
-      </c>
-      <c r="L89" s="3">
-        <v>4278</v>
-      </c>
-      <c r="M89" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>1854</v>
-      </c>
-      <c r="O89" s="3">
-        <v>1770</v>
-      </c>
-      <c r="P89" s="3">
-        <v>3624</v>
-      </c>
-      <c r="Q89" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>269894</v>
-      </c>
-      <c r="S89" s="3">
-        <v>237212</v>
-      </c>
-      <c r="T89" s="3">
-        <v>507106</v>
-      </c>
-      <c r="U89" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>10936</v>
-      </c>
-      <c r="W89" s="3">
-        <v>10454</v>
-      </c>
-      <c r="X89" s="3">
-        <v>21390</v>
-      </c>
-      <c r="Y89" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>9466</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>8700</v>
-      </c>
-      <c r="AB89" s="2">
-        <v>18166</v>
-      </c>
-      <c r="AC89" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="2">
-        <v>239970</v>
-      </c>
-      <c r="C90" s="2">
-        <v>8466</v>
-      </c>
-      <c r="D90" s="2">
-        <v>4269</v>
-      </c>
-      <c r="F90" s="3">
-        <v>45464</v>
-      </c>
-      <c r="G90" s="3">
-        <v>15026</v>
-      </c>
-      <c r="H90" s="3">
-        <v>60490</v>
-      </c>
-      <c r="I90" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>850</v>
-      </c>
-      <c r="K90" s="3">
-        <v>804</v>
-      </c>
-      <c r="L90" s="3">
-        <v>1654</v>
-      </c>
-      <c r="M90" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="3">
-        <v>1029</v>
-      </c>
-      <c r="O90" s="3">
-        <v>399</v>
-      </c>
-      <c r="P90" s="3">
-        <v>1428</v>
-      </c>
-      <c r="Q90" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="3">
-        <v>99224</v>
-      </c>
-      <c r="S90" s="3">
-        <v>80256</v>
-      </c>
-      <c r="T90" s="3">
-        <v>179480</v>
-      </c>
-      <c r="U90" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V90" s="3">
-        <v>3521</v>
-      </c>
-      <c r="W90" s="3">
-        <v>3291</v>
-      </c>
-      <c r="X90" s="3">
-        <v>6812</v>
-      </c>
-      <c r="Y90" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="3">
-        <v>1491</v>
-      </c>
-      <c r="AA90" s="3">
-        <v>1350</v>
-      </c>
-      <c r="AB90" s="2">
-        <v>2841</v>
-      </c>
-      <c r="AC90" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1808935</v>
-      </c>
-      <c r="C91" s="2">
-        <v>87863</v>
-      </c>
-      <c r="D91" s="2">
-        <v>57339</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="R102" s="3">
+        <v>352357</v>
+      </c>
+      <c r="S102" s="3">
+        <v>316266</v>
+      </c>
+      <c r="T102" s="3">
+        <v>668623</v>
+      </c>
+      <c r="U102" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>8707</v>
+      </c>
+      <c r="W102" s="3">
+        <v>8640</v>
+      </c>
+      <c r="X102" s="3">
+        <v>17347</v>
+      </c>
+      <c r="Y102" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>7034</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>6472</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>13506</v>
+      </c>
+      <c r="AC102" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1821347</v>
+      </c>
+      <c r="C103" s="2">
+        <v>50171</v>
+      </c>
+      <c r="D103" s="2">
+        <v>26995</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H91" s="3">
-        <v>91339</v>
-      </c>
-      <c r="I91" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J91" s="3">
-        <v>1674</v>
-      </c>
-      <c r="K91" s="3">
-        <v>1638</v>
-      </c>
-      <c r="L91" s="3">
-        <v>3312</v>
-      </c>
-      <c r="M91" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>1482</v>
-      </c>
-      <c r="O91" s="3">
-        <v>1174</v>
-      </c>
-      <c r="P91" s="3">
-        <v>2656</v>
-      </c>
-      <c r="Q91" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T91" s="3">
-        <v>1717596</v>
-      </c>
-      <c r="U91" s="5" t="e">
+      <c r="H103" s="3">
+        <v>286960</v>
+      </c>
+      <c r="I103" s="5" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V91" s="3">
-        <v>43288</v>
-      </c>
-      <c r="W91" s="3">
-        <v>41263</v>
-      </c>
-      <c r="X91" s="3">
-        <v>84551</v>
-      </c>
-      <c r="Y91" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>28751</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>25932</v>
-      </c>
-      <c r="AB91" s="2">
-        <v>54683</v>
-      </c>
-      <c r="AC91" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="2">
-        <v>2415058</v>
-      </c>
-      <c r="C92" s="2">
-        <v>111344</v>
-      </c>
-      <c r="D92" s="2">
-        <v>75096</v>
-      </c>
-      <c r="F92" s="3">
-        <v>76777</v>
-      </c>
-      <c r="G92" s="3">
-        <v>74572</v>
-      </c>
-      <c r="H92" s="3">
-        <v>151349</v>
-      </c>
-      <c r="I92" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
-        <v>2639</v>
-      </c>
-      <c r="K92" s="3">
-        <v>2476</v>
-      </c>
-      <c r="L92" s="3">
-        <v>5115</v>
-      </c>
-      <c r="M92" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="3">
-        <v>2339</v>
-      </c>
-      <c r="O92" s="3">
-        <v>2119</v>
-      </c>
-      <c r="P92" s="3">
-        <v>4458</v>
-      </c>
-      <c r="Q92" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="3">
-        <v>1169914</v>
-      </c>
-      <c r="S92" s="3">
-        <v>1093795</v>
-      </c>
-      <c r="T92" s="3">
-        <v>2263709</v>
-      </c>
-      <c r="U92" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="3">
-        <v>53700</v>
-      </c>
-      <c r="W92" s="3">
-        <v>52529</v>
-      </c>
-      <c r="X92" s="3">
-        <v>106229</v>
-      </c>
-      <c r="Y92" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="3">
-        <v>40747</v>
-      </c>
-      <c r="AA92" s="3">
-        <v>29891</v>
-      </c>
-      <c r="AB92" s="2">
-        <v>70638</v>
-      </c>
-      <c r="AC92" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="2">
-        <v>261460</v>
-      </c>
-      <c r="C93" s="2">
-        <v>11742</v>
-      </c>
-      <c r="D93" s="2">
-        <v>7154</v>
-      </c>
-      <c r="F93" s="3">
-        <v>5302</v>
-      </c>
-      <c r="G93" s="3">
-        <v>4581</v>
-      </c>
-      <c r="H93" s="3">
-        <v>9883</v>
-      </c>
-      <c r="I93" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
-        <v>241</v>
-      </c>
-      <c r="K93" s="3">
-        <v>217</v>
-      </c>
-      <c r="L93" s="3">
-        <v>458</v>
-      </c>
-      <c r="M93" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="3">
-        <v>161</v>
-      </c>
-      <c r="O93" s="3">
-        <v>141</v>
-      </c>
-      <c r="P93" s="3">
-        <v>302</v>
-      </c>
-      <c r="Q93" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="3">
-        <v>128812</v>
-      </c>
-      <c r="S93" s="3">
-        <v>122765</v>
-      </c>
-      <c r="T93" s="3">
-        <v>251577</v>
-      </c>
-      <c r="U93" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V93" s="3">
-        <v>5709</v>
-      </c>
-      <c r="W93" s="3">
-        <v>5575</v>
-      </c>
-      <c r="X93" s="3">
-        <v>11284</v>
-      </c>
-      <c r="Y93" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="3">
-        <v>3401</v>
-      </c>
-      <c r="AA93" s="3">
-        <v>3451</v>
-      </c>
-      <c r="AB93" s="2">
-        <v>6852</v>
-      </c>
-      <c r="AC93" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="2">
-        <v>6940235</v>
-      </c>
-      <c r="C94" s="2">
-        <v>308390</v>
-      </c>
-      <c r="D94" s="2">
-        <v>216773</v>
-      </c>
-      <c r="F94" s="3">
-        <v>278026</v>
-      </c>
-      <c r="G94" s="3">
-        <v>219165</v>
-      </c>
-      <c r="H94" s="3">
-        <v>588530</v>
-      </c>
-      <c r="I94" s="5">
-        <f t="shared" si="6"/>
-        <v>-91339</v>
-      </c>
-      <c r="J94" s="3">
-        <v>11307</v>
-      </c>
-      <c r="K94" s="3">
-        <v>10981</v>
-      </c>
-      <c r="L94" s="3">
-        <v>22288</v>
-      </c>
-      <c r="M94" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>10810</v>
-      </c>
-      <c r="O94" s="3">
-        <v>8484</v>
-      </c>
-      <c r="P94" s="3">
-        <v>19294</v>
-      </c>
-      <c r="Q94" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>2416749</v>
-      </c>
-      <c r="S94" s="3">
-        <v>2217360</v>
-      </c>
-      <c r="T94" s="3">
-        <v>6351705</v>
-      </c>
-      <c r="U94" s="5">
-        <f t="shared" si="9"/>
-        <v>-1717596</v>
-      </c>
-      <c r="V94" s="3">
-        <v>146394</v>
-      </c>
-      <c r="W94" s="3">
-        <v>139708</v>
-      </c>
-      <c r="X94" s="3">
-        <v>286102</v>
-      </c>
-      <c r="Y94" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>106820</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>90659</v>
-      </c>
-      <c r="AB94" s="2">
-        <v>197479</v>
-      </c>
-      <c r="AC94" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="2">
-        <v>934612</v>
-      </c>
-      <c r="C95" s="2">
-        <v>28487</v>
-      </c>
-      <c r="D95" s="2">
-        <v>19559</v>
-      </c>
-      <c r="F95" s="3">
-        <v>60009</v>
-      </c>
-      <c r="G95" s="3">
-        <v>57069</v>
-      </c>
-      <c r="H95" s="3">
-        <v>117078</v>
-      </c>
-      <c r="I95" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="3">
-        <v>3127</v>
-      </c>
-      <c r="K95" s="3">
-        <v>2527</v>
-      </c>
-      <c r="L95" s="3">
-        <v>5654</v>
-      </c>
-      <c r="M95" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="3">
-        <v>2242</v>
-      </c>
-      <c r="O95" s="3">
-        <v>2075</v>
-      </c>
-      <c r="P95" s="3">
-        <v>4317</v>
-      </c>
-      <c r="Q95" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="3">
-        <v>429213</v>
-      </c>
-      <c r="S95" s="3">
-        <v>388321</v>
-      </c>
-      <c r="T95" s="3">
-        <v>817534</v>
-      </c>
-      <c r="U95" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V95" s="3">
-        <v>13017</v>
-      </c>
-      <c r="W95" s="3">
-        <v>9816</v>
-      </c>
-      <c r="X95" s="3">
-        <v>22833</v>
-      </c>
-      <c r="Y95" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="3">
-        <v>8718</v>
-      </c>
-      <c r="AA95" s="3">
-        <v>6524</v>
-      </c>
-      <c r="AB95" s="2">
-        <v>15242</v>
-      </c>
-      <c r="AC95" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="2">
-        <v>388384</v>
-      </c>
-      <c r="C96" s="2">
-        <v>8327</v>
-      </c>
-      <c r="D96" s="2">
-        <v>6099</v>
-      </c>
-      <c r="F96" s="3">
-        <v>24166</v>
-      </c>
-      <c r="G96" s="3">
-        <v>17045</v>
-      </c>
-      <c r="H96" s="3">
-        <v>41211</v>
-      </c>
-      <c r="I96" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>828</v>
-      </c>
-      <c r="K96" s="3">
-        <v>759</v>
-      </c>
-      <c r="L96" s="3">
-        <v>1587</v>
-      </c>
-      <c r="M96" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>553</v>
-      </c>
-      <c r="O96" s="3">
-        <v>418</v>
-      </c>
-      <c r="P96" s="3">
-        <v>971</v>
-      </c>
-      <c r="Q96" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>183673</v>
-      </c>
-      <c r="S96" s="3">
-        <v>163500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>347173</v>
-      </c>
-      <c r="U96" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="3" t="s">
+      <c r="J103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="W96" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X96" s="3">
-        <v>6740</v>
-      </c>
-      <c r="Y96" s="5" t="e">
+      <c r="L103" s="3">
+        <v>9771</v>
+      </c>
+      <c r="M103" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z96" s="3" t="s">
+      <c r="N103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA96" s="3" t="s">
+      <c r="O103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB96" s="2">
-        <v>5128</v>
-      </c>
-      <c r="AC96" s="5" t="e">
+      <c r="P103" s="3">
+        <v>5928</v>
+      </c>
+      <c r="Q103" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="2">
-        <v>1006284</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F97" s="3">
-        <v>75651</v>
-      </c>
-      <c r="G97" s="3">
-        <v>56867</v>
-      </c>
-      <c r="H97" s="3">
-        <v>132518</v>
-      </c>
-      <c r="I97" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M97" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q97" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R97" s="3">
-        <v>480014</v>
-      </c>
-      <c r="S97" s="3">
-        <v>393752</v>
-      </c>
-      <c r="T97" s="3">
-        <v>873766</v>
-      </c>
-      <c r="U97" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y97" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC97" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="2">
-        <v>740186</v>
-      </c>
-      <c r="C98" s="2">
-        <v>13779</v>
-      </c>
-      <c r="D98" s="2">
-        <v>12956</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H98" s="3">
-        <v>56191</v>
-      </c>
-      <c r="I98" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L98" s="3">
-        <v>2047</v>
-      </c>
-      <c r="M98" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P98" s="3">
-        <v>1660</v>
-      </c>
-      <c r="Q98" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="S98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T98" s="3">
-        <v>683995</v>
-      </c>
-      <c r="U98" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X98" s="3">
-        <v>11732</v>
-      </c>
-      <c r="Y98" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB98" s="2">
-        <v>11296</v>
-      </c>
-      <c r="AC98" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="2">
-        <v>1078708</v>
-      </c>
-      <c r="C99" s="2">
-        <v>33595</v>
-      </c>
-      <c r="D99" s="2">
-        <v>21645</v>
-      </c>
-      <c r="F99" s="3">
-        <v>36102</v>
-      </c>
-      <c r="G99" s="3">
-        <v>28061</v>
-      </c>
-      <c r="H99" s="3">
-        <v>64163</v>
-      </c>
-      <c r="I99" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="3">
-        <v>1414</v>
-      </c>
-      <c r="K99" s="3">
-        <v>1375</v>
-      </c>
-      <c r="L99" s="3">
-        <v>2789</v>
-      </c>
-      <c r="M99" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="3">
-        <v>1043</v>
-      </c>
-      <c r="O99" s="3">
-        <v>884</v>
-      </c>
-      <c r="P99" s="3">
-        <v>1927</v>
-      </c>
-      <c r="Q99" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R99" s="3">
-        <v>556103</v>
-      </c>
-      <c r="S99" s="3">
-        <v>458442</v>
-      </c>
-      <c r="T99" s="3">
-        <v>1014545</v>
-      </c>
-      <c r="U99" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V99" s="3">
-        <v>16768</v>
-      </c>
-      <c r="W99" s="3">
-        <v>14038</v>
-      </c>
-      <c r="X99" s="3">
-        <v>30806</v>
-      </c>
-      <c r="Y99" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z99" s="3">
-        <v>10885</v>
-      </c>
-      <c r="AA99" s="3">
-        <v>8833</v>
-      </c>
-      <c r="AB99" s="2">
-        <v>19718</v>
-      </c>
-      <c r="AC99" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="2">
-        <v>1629180</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="3">
-        <v>94261</v>
-      </c>
-      <c r="G100" s="3">
-        <v>79159</v>
-      </c>
-      <c r="H100" s="3">
-        <v>173420</v>
-      </c>
-      <c r="I100" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M100" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q100" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R100" s="3">
-        <v>796744</v>
-      </c>
-      <c r="S100" s="3">
-        <v>659016</v>
-      </c>
-      <c r="T100" s="3">
-        <v>1455760</v>
-      </c>
-      <c r="U100" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y100" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC100" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="2">
-        <v>568342</v>
-      </c>
-      <c r="C101" s="2">
-        <v>19771</v>
-      </c>
-      <c r="D101" s="2">
-        <v>11624</v>
-      </c>
-      <c r="F101" s="3">
-        <v>15095</v>
-      </c>
-      <c r="G101" s="3">
-        <v>13775</v>
-      </c>
-      <c r="H101" s="3">
-        <v>28870</v>
-      </c>
-      <c r="I101" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>980</v>
-      </c>
-      <c r="K101" s="3">
-        <v>946</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1926</v>
-      </c>
-      <c r="M101" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>669</v>
-      </c>
-      <c r="O101" s="3">
-        <v>505</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1174</v>
-      </c>
-      <c r="Q101" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>284416</v>
-      </c>
-      <c r="S101" s="3">
-        <v>255056</v>
-      </c>
-      <c r="T101" s="3">
-        <v>539472</v>
-      </c>
-      <c r="U101" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>9623</v>
-      </c>
-      <c r="W101" s="3">
-        <v>8222</v>
-      </c>
-      <c r="X101" s="3">
-        <v>17845</v>
-      </c>
-      <c r="Y101" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>5885</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>4565</v>
-      </c>
-      <c r="AB101" s="2">
-        <v>10450</v>
-      </c>
-      <c r="AC101" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2">
-        <v>724639</v>
-      </c>
-      <c r="C102" s="2">
-        <v>20005</v>
-      </c>
-      <c r="D102" s="2">
-        <v>15101</v>
-      </c>
-      <c r="F102" s="3">
-        <v>28803</v>
-      </c>
-      <c r="G102" s="3">
-        <v>27213</v>
-      </c>
-      <c r="H102" s="3">
-        <v>56016</v>
-      </c>
-      <c r="I102" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1367</v>
-      </c>
-      <c r="K102" s="3">
-        <v>1291</v>
-      </c>
-      <c r="L102" s="3">
-        <v>2658</v>
-      </c>
-      <c r="M102" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>798</v>
-      </c>
-      <c r="O102" s="3">
-        <v>797</v>
-      </c>
-      <c r="P102" s="3">
-        <v>1595</v>
-      </c>
-      <c r="Q102" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>352357</v>
-      </c>
-      <c r="S102" s="3">
-        <v>316266</v>
-      </c>
-      <c r="T102" s="3">
-        <v>668623</v>
-      </c>
-      <c r="U102" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>8707</v>
-      </c>
-      <c r="W102" s="3">
-        <v>8640</v>
-      </c>
-      <c r="X102" s="3">
-        <v>17347</v>
-      </c>
-      <c r="Y102" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>7034</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>6472</v>
-      </c>
-      <c r="AB102" s="2">
-        <v>13506</v>
-      </c>
-      <c r="AC102" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1821347</v>
-      </c>
-      <c r="C103" s="2">
-        <v>50171</v>
-      </c>
-      <c r="D103" s="2">
-        <v>26995</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H103" s="3">
-        <v>286960</v>
-      </c>
-      <c r="I103" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L103" s="3">
-        <v>9771</v>
-      </c>
-      <c r="M103" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P103" s="3">
-        <v>5928</v>
-      </c>
-      <c r="Q103" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R103" s="3" t="s">
         <v>109</v>
       </c>
@@ -10272,7 +11510,7 @@
         <v>1534387</v>
       </c>
       <c r="U103" s="5" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="V103" s="3" t="s">
@@ -10285,7 +11523,7 @@
         <v>40400</v>
       </c>
       <c r="Y103" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z103" s="3" t="s">
@@ -10298,19 +11536,31 @@
         <v>21067</v>
       </c>
       <c r="AC103" s="5" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE103" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>8891682</v>
       </c>
-      <c r="C104" s="2">
-        <v>174185</v>
+      <c r="C104" s="8">
+        <v>174135</v>
       </c>
       <c r="D104" s="2">
         <v>113979</v>
@@ -10325,7 +11575,7 @@
         <v>956427</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-343151</v>
       </c>
       <c r="J104" s="3">
@@ -10338,7 +11588,7 @@
         <v>26432</v>
       </c>
       <c r="M104" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-11818</v>
       </c>
       <c r="N104" s="3">
@@ -10351,7 +11601,7 @@
         <v>17572</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-7588</v>
       </c>
       <c r="R104" s="3">
@@ -10364,7 +11614,7 @@
         <v>7935255</v>
       </c>
       <c r="U104" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2218382</v>
       </c>
       <c r="V104" s="3">
@@ -10377,7 +11627,7 @@
         <v>147703</v>
       </c>
       <c r="Y104" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-58872</v>
       </c>
       <c r="Z104" s="3">
@@ -10390,16 +11640,28 @@
         <v>96407</v>
       </c>
       <c r="AC104" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-37491</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE104" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
-        <v>26335884</v>
+      <c r="B105" s="8">
+        <v>26385884</v>
       </c>
       <c r="C105" s="2">
         <v>869141</v>
@@ -10417,7 +11679,7 @@
         <v>2845382</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-566479</v>
       </c>
       <c r="J105" s="3">
@@ -10430,7 +11692,7 @@
         <v>88336</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-14304</v>
       </c>
       <c r="N105" s="3">
@@ -10443,7 +11705,7 @@
         <v>65478</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-9842</v>
       </c>
       <c r="R105" s="3">
@@ -10456,7 +11718,7 @@
         <v>23540502</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4895087</v>
       </c>
       <c r="V105" s="3">
@@ -10469,7 +11731,7 @@
         <v>780805</v>
       </c>
       <c r="Y105" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-82485</v>
       </c>
       <c r="Z105" s="3">
@@ -10482,16 +11744,28 @@
         <v>509470</v>
       </c>
       <c r="AC105" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-52555</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE105" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="2">
-        <v>147181826</v>
+      <c r="B106" s="8">
+        <v>147181326</v>
       </c>
       <c r="C106" s="2">
         <v>6097407</v>
@@ -10509,7 +11783,7 @@
         <v>18495211</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-744263</v>
       </c>
       <c r="J106" s="3">
@@ -10522,7 +11796,7 @@
         <v>645804</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-47522</v>
       </c>
       <c r="N106" s="3">
@@ -10535,7 +11809,7 @@
         <v>490445</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-36409</v>
       </c>
       <c r="R106" s="3">
@@ -10548,7 +11822,7 @@
         <v>128686115</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6496441</v>
       </c>
       <c r="V106" s="3">
@@ -10561,7 +11835,7 @@
         <v>5451603</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-325785</v>
       </c>
       <c r="Z106" s="3">
@@ -10574,11 +11848,23 @@
         <v>3752637</v>
       </c>
       <c r="AC106" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-226163</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE106" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -10606,8 +11892,11 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="2"/>
       <c r="AC107" s="5"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE107" s="7"/>
+      <c r="AF107" s="7"/>
+      <c r="AG107" s="7"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -10635,8 +11924,11 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="5"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="7"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -10664,8 +11956,11 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="5"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE109" s="7"/>
+      <c r="AF109" s="7"/>
+      <c r="AG109" s="7"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -10693,8 +11988,11 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="5"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE110" s="7"/>
+      <c r="AF110" s="7"/>
+      <c r="AG110" s="7"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -10722,8 +12020,11 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="5"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE111" s="7"/>
+      <c r="AF111" s="7"/>
+      <c r="AG111" s="7"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -10751,8 +12052,11 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="5"/>
-    </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE112" s="7"/>
+      <c r="AF112" s="7"/>
+      <c r="AG112" s="7"/>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -10780,8 +12084,11 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="5"/>
-    </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE113" s="7"/>
+      <c r="AF113" s="7"/>
+      <c r="AG113" s="7"/>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -10809,8 +12116,11 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="5"/>
-    </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="7"/>
+      <c r="AG114" s="7"/>
+    </row>
+    <row r="115" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -10838,8 +12148,11 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="5"/>
-    </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE115" s="7"/>
+      <c r="AF115" s="7"/>
+      <c r="AG115" s="7"/>
+    </row>
+    <row r="116" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -10867,8 +12180,11 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="5"/>
-    </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE116" s="7"/>
+      <c r="AF116" s="7"/>
+      <c r="AG116" s="7"/>
+    </row>
+    <row r="117" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -10896,8 +12212,11 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="5"/>
-    </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE117" s="7"/>
+      <c r="AF117" s="7"/>
+      <c r="AG117" s="7"/>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -10925,8 +12244,11 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="5"/>
-    </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE118" s="7"/>
+      <c r="AF118" s="7"/>
+      <c r="AG118" s="7"/>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -10954,8 +12276,11 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="7"/>
-    </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE119" s="7"/>
+      <c r="AF119" s="7"/>
+      <c r="AG119" s="7"/>
+    </row>
+    <row r="120" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -10983,8 +12308,11 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="7"/>
-    </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE120" s="7"/>
+      <c r="AF120" s="7"/>
+      <c r="AG120" s="7"/>
+    </row>
+    <row r="121" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -11012,8 +12340,11 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="7"/>
-    </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE121" s="7"/>
+      <c r="AF121" s="7"/>
+      <c r="AG121" s="7"/>
+    </row>
+    <row r="122" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -11041,8 +12372,11 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="7"/>
-    </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE122" s="7"/>
+      <c r="AF122" s="7"/>
+      <c r="AG122" s="7"/>
+    </row>
+    <row r="123" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -11071,7 +12405,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="7"/>
     </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -11100,7 +12434,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="7"/>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -11129,7 +12463,7 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="7"/>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -11158,7 +12492,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="7"/>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -11187,7 +12521,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="7"/>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
